--- a/data/trans_orig/Q5413-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5413-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0C10EED7-732C-48AF-BBF8-E8D99C1361AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EEFE96F-EB13-4507-A8D6-B590D0EC3ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{65F0DB75-E86D-4DC5-9AB3-B79A53C85BD8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8770CDEF-40A0-419C-9EC2-3E79797EEEF6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="543">
   <si>
     <t>Población según si es capaz de vestirse solo en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -101,7 +101,7 @@
     <t>1,97%</t>
   </si>
   <si>
-    <t>10,09%</t>
+    <t>10,77%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -125,7 +125,7 @@
     <t>98,03%</t>
   </si>
   <si>
-    <t>89,91%</t>
+    <t>89,23%</t>
   </si>
   <si>
     <t>2/10</t>
@@ -134,7 +134,7 @@
     <t>1,07%</t>
   </si>
   <si>
-    <t>6,1%</t>
+    <t>6,39%</t>
   </si>
   <si>
     <t>1,87%</t>
@@ -149,16 +149,16 @@
     <t>0,44%</t>
   </si>
   <si>
-    <t>4,07%</t>
+    <t>4,54%</t>
   </si>
   <si>
     <t>6,14%</t>
   </si>
   <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>12,19%</t>
   </si>
   <si>
     <t>0,96%</t>
@@ -170,1486 +170,1504 @@
     <t>3,11%</t>
   </si>
   <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>96,94%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>98,16%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,68%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de vestirse solo en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>86,83%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>10,57%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>13,73%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>84,74%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>80,93%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
     <t>1,28%</t>
   </si>
   <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>82,85%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de vestirse solo en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>27,51%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>87,26%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>90,58%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>87,14%</t>
+  </si>
+  <si>
+    <t>96,69%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>9,42%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>93,65%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de vestirse solo en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
     <t>6,23%</t>
   </si>
   <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>86,45%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
   </si>
   <si>
     <t>0,77%</t>
   </si>
   <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
   </si>
   <si>
     <t>6,03%</t>
   </si>
   <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>94,72%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de vestirse solo en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>22,52%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,68%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>93,8%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>72,93%</t>
-  </si>
-  <si>
-    <t>87,24%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>14,43%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,31%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>88,37%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>86,51%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de vestirse solo en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
     <t>4,74%</t>
   </si>
   <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>91,88%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,26%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>96,15%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de vestirse solo en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>10,63%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>95,71%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>86,44%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>82,06%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>88,19%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
   </si>
   <si>
     <t>94,0%</t>
   </si>
   <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
-  </si>
-  <si>
-    <t>93,76%</t>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>93,74%</t>
   </si>
 </sst>
 </file>
@@ -2061,7 +2079,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{809C3CB5-0669-4E53-9838-C026647C9067}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A86417B-DA6A-4DDF-97E4-B5578F0642EC}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2520,7 +2538,7 @@
         <v>207</v>
       </c>
       <c r="N10" s="7">
-        <v>203893</v>
+        <v>203894</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>51</v>
@@ -2571,7 +2589,7 @@
         <v>217</v>
       </c>
       <c r="N11" s="7">
-        <v>213825</v>
+        <v>213826</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>24</v>
@@ -2612,13 +2630,13 @@
         <v>3768</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -2627,13 +2645,13 @@
         <v>6620</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>62</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,13 +2666,13 @@
         <v>3996</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>66</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -2663,13 +2681,13 @@
         <v>4258</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>68</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -2678,13 +2696,13 @@
         <v>8254</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2699,13 +2717,13 @@
         <v>139041</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="H14" s="7">
         <v>162</v>
@@ -2714,13 +2732,13 @@
         <v>174654</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="M14" s="7">
         <v>301</v>
@@ -2729,13 +2747,13 @@
         <v>313694</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2791,7 +2809,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2809,7 +2827,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2818,13 +2836,13 @@
         <v>1933</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -2833,13 +2851,13 @@
         <v>1933</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2854,13 +2872,13 @@
         <v>1882</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -2869,10 +2887,10 @@
         <v>5148</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>91</v>
@@ -3030,7 +3048,7 @@
         <v>107</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -3039,13 +3057,13 @@
         <v>7215</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3060,10 +3078,10 @@
         <v>3292</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>112</v>
+        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>113</v>
@@ -3132,7 +3150,7 @@
         <v>123</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="M22" s="7">
         <v>342</v>
@@ -3141,13 +3159,13 @@
         <v>331986</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3266,10 +3284,10 @@
         <v>14609</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>137</v>
@@ -3284,10 +3302,10 @@
         <v>138</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M25" s="7">
         <v>30</v>
@@ -3296,13 +3314,13 @@
         <v>29718</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3317,13 +3335,13 @@
         <v>483217</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H26" s="7">
         <v>633</v>
@@ -3332,13 +3350,13 @@
         <v>647312</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M26" s="7">
         <v>1135</v>
@@ -3347,13 +3365,13 @@
         <v>1130529</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3409,7 +3427,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -3430,7 +3448,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CC3622E-D225-41EF-86ED-7DDC70CBFF0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2091A4-590E-4CB1-9D60-78F48D921DC2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3447,7 +3465,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3560,7 +3578,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3575,7 +3593,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3590,7 +3608,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3605,13 +3623,13 @@
         <v>965</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3620,13 +3638,13 @@
         <v>1131</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -3635,7 +3653,7 @@
         <v>2096</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
@@ -3760,7 +3778,7 @@
         <v>2125</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
@@ -3793,10 +3811,10 @@
         <v>173</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3811,13 +3829,13 @@
         <v>4300</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
@@ -3826,13 +3844,13 @@
         <v>10636</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K9" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="K9" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>181</v>
       </c>
       <c r="M9" s="7">
         <v>14</v>
@@ -3841,13 +3859,13 @@
         <v>14936</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,13 +3880,13 @@
         <v>111925</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H10" s="7">
         <v>117</v>
@@ -3877,13 +3895,13 @@
         <v>123589</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>189</v>
       </c>
       <c r="M10" s="7">
         <v>216</v>
@@ -3892,13 +3910,13 @@
         <v>235514</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,13 +3984,13 @@
         <v>6474</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -3981,13 +3999,13 @@
         <v>11100</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>197</v>
       </c>
       <c r="M12" s="7">
         <v>16</v>
@@ -3996,13 +4014,13 @@
         <v>17574</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,13 +4035,13 @@
         <v>8730</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>201</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>203</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -4032,13 +4050,13 @@
         <v>26237</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>206</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
@@ -4047,13 +4065,13 @@
         <v>34967</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>207</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,13 +4086,13 @@
         <v>139674</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>210</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="H14" s="7">
         <v>144</v>
@@ -4083,13 +4101,13 @@
         <v>154082</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>215</v>
       </c>
       <c r="M14" s="7">
         <v>268</v>
@@ -4098,13 +4116,13 @@
         <v>293757</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4160,7 +4178,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4172,13 +4190,13 @@
         <v>5409</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -4187,13 +4205,13 @@
         <v>9003</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>224</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -4202,13 +4220,13 @@
         <v>14412</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4241,13 @@
         <v>2117</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -4238,13 +4256,13 @@
         <v>18000</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -4253,13 +4271,13 @@
         <v>20117</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,13 +4292,13 @@
         <v>96072</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>238</v>
       </c>
       <c r="H18" s="7">
         <v>105</v>
@@ -4289,13 +4307,13 @@
         <v>114016</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>241</v>
       </c>
       <c r="M18" s="7">
         <v>189</v>
@@ -4304,13 +4322,13 @@
         <v>210088</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4378,13 +4396,13 @@
         <v>2027</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -4393,10 +4411,10 @@
         <v>8392</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>247</v>
@@ -4411,10 +4429,10 @@
         <v>248</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>249</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4429,13 +4447,13 @@
         <v>13185</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H21" s="7">
         <v>14</v>
@@ -4444,7 +4462,7 @@
         <v>14673</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>253</v>
+        <v>68</v>
       </c>
       <c r="K21" s="7" t="s">
         <v>254</v>
@@ -4462,10 +4480,10 @@
         <v>256</v>
       </c>
       <c r="P21" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4480,13 +4498,13 @@
         <v>146401</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="H22" s="7">
         <v>209</v>
@@ -4495,13 +4513,13 @@
         <v>220685</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="M22" s="7">
         <v>343</v>
@@ -4510,13 +4528,13 @@
         <v>367086</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4584,13 +4602,13 @@
         <v>16035</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H24" s="7">
         <v>32</v>
@@ -4599,13 +4617,13 @@
         <v>35863</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>46</v>
@@ -4614,13 +4632,13 @@
         <v>51898</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>223</v>
+        <v>273</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>273</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4692,7 +4710,7 @@
         <v>284</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>145</v>
+        <v>285</v>
       </c>
       <c r="H26" s="7">
         <v>597</v>
@@ -4701,13 +4719,13 @@
         <v>636434</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="M26" s="7">
         <v>1061</v>
@@ -4716,13 +4734,13 @@
         <v>1150739</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4778,7 +4796,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -4799,7 +4817,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFE233B8-4DFF-426C-9C64-823E1374E554}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B6AB3A-5408-475E-A8B4-ECD9C50CF230}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4816,7 +4834,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4923,13 +4941,13 @@
         <v>1843</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4944,7 +4962,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4953,13 +4971,13 @@
         <v>1843</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4974,13 +4992,13 @@
         <v>1079</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -4989,13 +5007,13 @@
         <v>4360</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>85</v>
+        <v>301</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -5004,13 +5022,13 @@
         <v>5439</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5025,13 +5043,13 @@
         <v>18766</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="H6" s="7">
         <v>19</v>
@@ -5040,13 +5058,13 @@
         <v>19079</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="M6" s="7">
         <v>40</v>
@@ -5055,13 +5073,13 @@
         <v>37844</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5129,13 +5147,13 @@
         <v>1694</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -5144,13 +5162,13 @@
         <v>3456</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -5159,13 +5177,13 @@
         <v>5150</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5180,13 +5198,13 @@
         <v>8521</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -5195,13 +5213,13 @@
         <v>9103</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>89</v>
+        <v>326</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="M9" s="7">
         <v>18</v>
@@ -5210,13 +5228,13 @@
         <v>17623</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>105</v>
+        <v>329</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5231,13 +5249,13 @@
         <v>104831</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="H10" s="7">
         <v>124</v>
@@ -5246,13 +5264,13 @@
         <v>137393</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="M10" s="7">
         <v>236</v>
@@ -5261,13 +5279,13 @@
         <v>242224</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5335,13 +5353,13 @@
         <v>2563</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>338</v>
+        <v>111</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -5350,13 +5368,13 @@
         <v>4530</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>341</v>
+        <v>220</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -5365,13 +5383,13 @@
         <v>7093</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5386,13 +5404,13 @@
         <v>5076</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>313</v>
+        <v>218</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>346</v>
+        <v>174</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -5407,7 +5425,7 @@
         <v>348</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>349</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -5416,13 +5434,13 @@
         <v>18625</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>350</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5437,13 +5455,13 @@
         <v>157302</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>354</v>
       </c>
       <c r="H14" s="7">
         <v>168</v>
@@ -5452,13 +5470,13 @@
         <v>201085</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>355</v>
+        <v>52</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>356</v>
+        <v>265</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="M14" s="7">
         <v>334</v>
@@ -5467,13 +5485,13 @@
         <v>358386</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>358</v>
+        <v>126</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,7 +5547,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5541,13 +5559,13 @@
         <v>1020</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5556,13 +5574,13 @@
         <v>7545</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>273</v>
+        <v>358</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>342</v>
+        <v>359</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -5571,13 +5589,13 @@
         <v>8565</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>363</v>
+        <v>181</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>84</v>
+        <v>361</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5592,13 +5610,13 @@
         <v>6837</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -5607,13 +5625,13 @@
         <v>12185</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -5622,13 +5640,13 @@
         <v>19022</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>372</v>
+        <v>252</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5643,13 +5661,13 @@
         <v>107177</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H18" s="7">
         <v>103</v>
@@ -5658,13 +5676,13 @@
         <v>122866</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="M18" s="7">
         <v>209</v>
@@ -5673,13 +5691,13 @@
         <v>230044</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5753,7 +5771,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -5762,13 +5780,13 @@
         <v>5038</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>385</v>
+        <v>274</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -5777,13 +5795,13 @@
         <v>5802</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5798,13 +5816,13 @@
         <v>6259</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>390</v>
+        <v>114</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -5813,13 +5831,13 @@
         <v>11855</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="M21" s="7">
         <v>15</v>
@@ -5828,13 +5846,13 @@
         <v>18114</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>141</v>
+        <v>391</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5849,13 +5867,13 @@
         <v>167595</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>189</v>
+        <v>394</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>78</v>
+        <v>395</v>
       </c>
       <c r="H22" s="7">
         <v>186</v>
@@ -5864,13 +5882,13 @@
         <v>225889</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="M22" s="7">
         <v>368</v>
@@ -5879,13 +5897,13 @@
         <v>393485</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5953,13 +5971,13 @@
         <v>7885</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>366</v>
+        <v>403</v>
       </c>
       <c r="H24" s="7">
         <v>16</v>
@@ -5968,13 +5986,13 @@
         <v>20568</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="K24" s="7" t="s">
-        <v>406</v>
-      </c>
       <c r="L24" s="7" t="s">
-        <v>407</v>
+        <v>111</v>
       </c>
       <c r="M24" s="7">
         <v>25</v>
@@ -5983,13 +6001,13 @@
         <v>28452</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>129</v>
+        <v>406</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>386</v>
+        <v>407</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>408</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6004,13 +6022,13 @@
         <v>27772</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="H25" s="7">
         <v>39</v>
@@ -6019,13 +6037,13 @@
         <v>51051</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="M25" s="7">
         <v>70</v>
@@ -6034,13 +6052,13 @@
         <v>78823</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6055,13 +6073,13 @@
         <v>555671</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>417</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="H26" s="7">
         <v>600</v>
@@ -6070,13 +6088,13 @@
         <v>706312</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>420</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="M26" s="7">
         <v>1187</v>
@@ -6085,13 +6103,13 @@
         <v>1261983</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6147,7 +6165,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -6168,7 +6186,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AFD3DCA-D078-4B4B-8861-E0323DFA2B79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F97148-84C8-462C-BA45-BE8F8E91FBAB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6185,7 +6203,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6292,13 +6310,13 @@
         <v>374</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>139</v>
+        <v>424</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -6307,13 +6325,13 @@
         <v>860</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -6322,13 +6340,13 @@
         <v>1234</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>337</v>
+        <v>428</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6343,13 +6361,13 @@
         <v>350</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>195</v>
+        <v>430</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -6358,13 +6376,13 @@
         <v>4325</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>234</v>
+        <v>170</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -6373,13 +6391,13 @@
         <v>4674</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>44</v>
+        <v>433</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6394,10 +6412,10 @@
         <v>28940</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>434</v>
+        <v>188</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
@@ -6409,13 +6427,13 @@
         <v>40237</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M6" s="7">
         <v>144</v>
@@ -6424,13 +6442,13 @@
         <v>69177</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6501,10 +6519,10 @@
         <v>55</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -6513,13 +6531,13 @@
         <v>2529</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>443</v>
+        <v>318</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>444</v>
+        <v>324</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -6531,10 +6549,10 @@
         <v>445</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6567,10 +6585,10 @@
         <v>450</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>394</v>
+        <v>451</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="M9" s="7">
         <v>55</v>
@@ -6579,13 +6597,13 @@
         <v>26054</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>454</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6600,13 +6618,13 @@
         <v>114125</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="H10" s="7">
         <v>286</v>
@@ -6615,13 +6633,13 @@
         <v>126499</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="M10" s="7">
         <v>474</v>
@@ -6630,13 +6648,13 @@
         <v>240625</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6704,13 +6722,13 @@
         <v>1948</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>42</v>
+        <v>467</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -6719,13 +6737,13 @@
         <v>8146</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>465</v>
+        <v>275</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>466</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>60</v>
+        <v>468</v>
       </c>
       <c r="M12" s="7">
         <v>18</v>
@@ -6734,13 +6752,13 @@
         <v>10094</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6758,10 +6776,10 @@
         <v>33</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>90</v>
+        <v>472</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -6770,13 +6788,13 @@
         <v>20350</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>474</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>471</v>
+        <v>88</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -6785,13 +6803,13 @@
         <v>31783</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>169</v>
+        <v>477</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6806,13 +6824,13 @@
         <v>160465</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>476</v>
+        <v>288</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="H14" s="7">
         <v>396</v>
@@ -6821,13 +6839,13 @@
         <v>214014</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="M14" s="7">
         <v>630</v>
@@ -6836,13 +6854,13 @@
         <v>374478</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6898,7 +6916,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6910,13 +6928,13 @@
         <v>1880</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>485</v>
+        <v>349</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -6925,13 +6943,13 @@
         <v>6815</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>115</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -6940,13 +6958,13 @@
         <v>8695</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>488</v>
+        <v>321</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6961,13 +6979,13 @@
         <v>3055</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>337</v>
+        <v>491</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>41</v>
+        <v>492</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -6976,13 +6994,13 @@
         <v>7973</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>490</v>
+        <v>224</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>443</v>
+        <v>493</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -6994,10 +7012,10 @@
         <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>446</v>
+        <v>218</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>338</v>
+        <v>495</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7012,13 +7030,13 @@
         <v>143255</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="H18" s="7">
         <v>267</v>
@@ -7027,13 +7045,13 @@
         <v>266326</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="M18" s="7">
         <v>454</v>
@@ -7042,13 +7060,13 @@
         <v>409581</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>500</v>
+        <v>74</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7116,13 +7134,13 @@
         <v>1444</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>383</v>
+        <v>388</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -7131,13 +7149,13 @@
         <v>5294</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>142</v>
+        <v>504</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -7146,13 +7164,13 @@
         <v>6738</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7167,13 +7185,13 @@
         <v>6895</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>406</v>
+        <v>470</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>94</v>
+        <v>358</v>
       </c>
       <c r="H21" s="7">
         <v>35</v>
@@ -7182,13 +7200,13 @@
         <v>23380</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="M21" s="7">
         <v>46</v>
@@ -7197,13 +7215,13 @@
         <v>30275</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>169</v>
+        <v>513</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>509</v>
+        <v>514</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7218,13 +7236,13 @@
         <v>211905</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="H22" s="7">
         <v>480</v>
@@ -7233,13 +7251,13 @@
         <v>280879</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="M22" s="7">
         <v>794</v>
@@ -7248,13 +7266,13 @@
         <v>492784</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>518</v>
+        <v>419</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7322,13 +7340,13 @@
         <v>8100</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>520</v>
+        <v>131</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>104</v>
+        <v>67</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>521</v>
+        <v>406</v>
       </c>
       <c r="H24" s="7">
         <v>41</v>
@@ -7337,13 +7355,13 @@
         <v>23644</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>34</v>
+        <v>470</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="M24" s="7">
         <v>53</v>
@@ -7352,13 +7370,13 @@
         <v>31744</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>43</v>
+        <v>249</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7373,13 +7391,13 @@
         <v>30131</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>509</v>
+        <v>367</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>42</v>
+        <v>528</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>195</v>
+        <v>529</v>
       </c>
       <c r="H25" s="7">
         <v>136</v>
@@ -7388,13 +7406,13 @@
         <v>73684</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>527</v>
+        <v>304</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="M25" s="7">
         <v>183</v>
@@ -7403,13 +7421,13 @@
         <v>103815</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>113</v>
+        <v>532</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7424,13 +7442,13 @@
         <v>658690</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="H26" s="7">
         <v>1528</v>
@@ -7439,13 +7457,13 @@
         <v>927954</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>125</v>
+        <v>540</v>
       </c>
       <c r="M26" s="7">
         <v>2496</v>
@@ -7454,13 +7472,13 @@
         <v>1586645</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>74</v>
+        <v>541</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7516,7 +7534,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5413-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5413-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7EEFE96F-EB13-4507-A8D6-B590D0EC3ED3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB3979BD-0361-4DAB-9E03-4573EA099359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8770CDEF-40A0-419C-9EC2-3E79797EEEF6}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{415712EE-5BCE-4E95-A81C-825AA2492BED}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="551">
   <si>
     <t>Población según si es capaz de vestirse solo en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>No puede</t>
@@ -95,13 +95,13 @@
     <t>4,11%</t>
   </si>
   <si>
-    <t>20,56%</t>
+    <t>20,17%</t>
   </si>
   <si>
     <t>1,97%</t>
   </si>
   <si>
-    <t>10,77%</t>
+    <t>9,95%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -119,1519 +119,1543 @@
     <t>95,89%</t>
   </si>
   <si>
-    <t>79,44%</t>
+    <t>79,83%</t>
   </si>
   <si>
     <t>98,03%</t>
   </si>
   <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>1,07%</t>
   </si>
   <si>
-    <t>6,39%</t>
+    <t>8,55%</t>
   </si>
   <si>
     <t>1,87%</t>
   </si>
   <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>1,44%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>94,26%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>90,11%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>98,81%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de vestirse solo en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>13,48%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>97,43%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>80,08%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>84,86%</t>
+  </si>
+  <si>
+    <t>97,74%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>72,5%</t>
+  </si>
+  <si>
+    <t>87,06%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>86,4%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,21%</t>
+  </si>
+  <si>
+    <t>94,18%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de vestirse solo en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>25,88%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>14,87%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>23,98%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>95,01%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>85,63%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>86,79%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>87,31%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>96,47%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>1,35%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>95,7%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>87,85%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>90,49%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de vestirse solo en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>85,71%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
     <t>6,58%</t>
   </si>
   <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>96,94%</t>
-  </si>
-  <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>99,1%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>87,32%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>98,54%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>92,57%</t>
+  </si>
+  <si>
+    <t>98,0%</t>
   </si>
   <si>
     <t>0,66%</t>
   </si>
   <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>98,0%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>98,16%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>97,93%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
   </si>
   <si>
     <t>1,16%</t>
   </si>
   <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,84%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de vestirse solo en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>77,81%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>81,78%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>13,73%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>84,74%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>85,61%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>80,93%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>84,65%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>80,83%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,84%</t>
   </si>
   <si>
     <t>1,28%</t>
   </si>
   <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,29%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>82,85%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>86,56%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de vestirse solo en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>45,82%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
   </si>
   <si>
     <t>4,68%</t>
-  </si>
-  <si>
-    <t>27,51%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>54,18%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>95,09%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>95,53%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>87,26%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,26%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>91,7%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>90,58%</t>
-  </si>
-  <si>
-    <t>95,74%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>2,43%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>16,04%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>87,14%</t>
-  </si>
-  <si>
-    <t>96,69%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>2,41%</t>
-  </si>
-  <si>
-    <t>0,54%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>9,42%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>96,4%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>93,65%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de vestirse solo en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
   </si>
   <si>
     <t>8,71%</t>
@@ -2079,7 +2103,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A86417B-DA6A-4DDF-97E4-B5578F0642EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96071C57-91CF-4142-8B0D-DACC06720F72}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2538,7 +2562,7 @@
         <v>207</v>
       </c>
       <c r="N10" s="7">
-        <v>203894</v>
+        <v>203893</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>51</v>
@@ -2589,7 +2613,7 @@
         <v>217</v>
       </c>
       <c r="N11" s="7">
-        <v>213826</v>
+        <v>213825</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>24</v>
@@ -3129,13 +3153,13 @@
         <v>133086</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H22" s="7">
         <v>191</v>
@@ -3144,13 +3168,13 @@
         <v>198899</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M22" s="7">
         <v>342</v>
@@ -3159,13 +3183,13 @@
         <v>331986</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3233,13 +3257,13 @@
         <v>4640</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="H24" s="7">
         <v>14</v>
@@ -3248,13 +3272,13 @@
         <v>14420</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -3263,13 +3287,13 @@
         <v>19061</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3284,13 +3308,13 @@
         <v>14609</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>86</v>
+        <v>135</v>
       </c>
       <c r="F25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -3299,13 +3323,13 @@
         <v>15109</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>139</v>
+        <v>15</v>
       </c>
       <c r="M25" s="7">
         <v>30</v>
@@ -3314,13 +3338,13 @@
         <v>29718</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3335,13 +3359,13 @@
         <v>483217</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="H26" s="7">
         <v>633</v>
@@ -3350,13 +3374,13 @@
         <v>647312</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M26" s="7">
         <v>1135</v>
@@ -3365,13 +3389,13 @@
         <v>1130529</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3427,7 +3451,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -3448,7 +3472,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA2091A4-590E-4CB1-9D60-78F48D921DC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3620EF71-CB23-48F8-AEB4-C210408451F0}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3465,7 +3489,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3578,7 +3602,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3593,7 +3617,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3608,7 +3632,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3623,13 +3647,13 @@
         <v>965</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3638,13 +3662,13 @@
         <v>1131</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -3653,13 +3677,13 @@
         <v>2096</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>161</v>
+        <v>116</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,10 +3698,10 @@
         <v>20233</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
@@ -3689,10 +3713,10 @@
         <v>24063</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>22</v>
@@ -3704,10 +3728,10 @@
         <v>44296</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>22</v>
@@ -3784,7 +3808,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -3793,13 +3817,13 @@
         <v>7368</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -3808,13 +3832,13 @@
         <v>9493</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,13 +3853,13 @@
         <v>4300</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
@@ -3844,13 +3868,13 @@
         <v>10636</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M9" s="7">
         <v>14</v>
@@ -3859,13 +3883,13 @@
         <v>14936</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,13 +3904,13 @@
         <v>111925</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H10" s="7">
         <v>117</v>
@@ -3895,13 +3919,13 @@
         <v>123589</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="M10" s="7">
         <v>216</v>
@@ -3910,13 +3934,13 @@
         <v>235514</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,13 +4008,13 @@
         <v>6474</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -3999,13 +4023,13 @@
         <v>11100</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>195</v>
+        <v>92</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M12" s="7">
         <v>16</v>
@@ -4014,13 +4038,13 @@
         <v>17574</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>195</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,13 +4059,13 @@
         <v>8730</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -4050,13 +4074,13 @@
         <v>26237</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
@@ -4065,13 +4089,13 @@
         <v>34967</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4086,13 +4110,13 @@
         <v>139674</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H14" s="7">
         <v>144</v>
@@ -4101,13 +4125,13 @@
         <v>154082</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M14" s="7">
         <v>268</v>
@@ -4116,13 +4140,13 @@
         <v>293757</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,13 +4214,13 @@
         <v>5409</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -4205,13 +4229,13 @@
         <v>9003</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -4220,13 +4244,13 @@
         <v>14412</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4241,13 +4265,13 @@
         <v>2117</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -4256,13 +4280,13 @@
         <v>18000</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -4271,13 +4295,13 @@
         <v>20117</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4292,13 +4316,13 @@
         <v>96072</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H18" s="7">
         <v>105</v>
@@ -4307,13 +4331,13 @@
         <v>114016</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="M18" s="7">
         <v>189</v>
@@ -4322,13 +4346,13 @@
         <v>210088</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4396,13 +4420,13 @@
         <v>2027</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -4411,13 +4435,13 @@
         <v>8392</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -4426,13 +4450,13 @@
         <v>10419</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4447,13 +4471,13 @@
         <v>13185</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="H21" s="7">
         <v>14</v>
@@ -4462,13 +4486,13 @@
         <v>14673</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>68</v>
+        <v>251</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M21" s="7">
         <v>25</v>
@@ -4477,13 +4501,13 @@
         <v>27859</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>116</v>
+        <v>255</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>257</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4498,13 +4522,13 @@
         <v>146401</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H22" s="7">
         <v>209</v>
@@ -4513,13 +4537,13 @@
         <v>220685</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M22" s="7">
         <v>343</v>
@@ -4528,13 +4552,13 @@
         <v>367086</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4602,13 +4626,13 @@
         <v>16035</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="H24" s="7">
         <v>32</v>
@@ -4617,13 +4641,13 @@
         <v>35863</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M24" s="7">
         <v>46</v>
@@ -4632,13 +4656,13 @@
         <v>51898</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>57</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4653,13 +4677,13 @@
         <v>29297</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H25" s="7">
         <v>65</v>
@@ -4668,13 +4692,13 @@
         <v>70678</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>278</v>
+        <v>174</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="M25" s="7">
         <v>91</v>
@@ -4683,13 +4707,13 @@
         <v>99975</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4704,13 +4728,13 @@
         <v>514305</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="H26" s="7">
         <v>597</v>
@@ -4719,13 +4743,13 @@
         <v>636434</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="M26" s="7">
         <v>1061</v>
@@ -4734,13 +4758,13 @@
         <v>1150739</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4796,7 +4820,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -4817,7 +4841,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58B6AB3A-5408-475E-A8B4-ECD9C50CF230}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A22506-66CD-4163-8486-05914AF8CBAB}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4834,7 +4858,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4941,13 +4965,13 @@
         <v>1843</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4962,7 +4986,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4971,13 +4995,13 @@
         <v>1843</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4992,13 +5016,13 @@
         <v>1079</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -5007,13 +5031,13 @@
         <v>4360</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -5022,13 +5046,13 @@
         <v>5439</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5043,13 +5067,13 @@
         <v>18766</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H6" s="7">
         <v>19</v>
@@ -5058,13 +5082,13 @@
         <v>19079</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M6" s="7">
         <v>40</v>
@@ -5073,13 +5097,13 @@
         <v>37844</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5147,13 +5171,13 @@
         <v>1694</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>316</v>
+        <v>116</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -5162,13 +5186,13 @@
         <v>3456</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -5177,13 +5201,13 @@
         <v>5150</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5198,13 +5222,13 @@
         <v>8521</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -5213,28 +5237,28 @@
         <v>9103</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>42</v>
+        <v>322</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="M9" s="7">
         <v>18</v>
       </c>
       <c r="N9" s="7">
-        <v>17623</v>
+        <v>17624</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5249,13 +5273,13 @@
         <v>104831</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H10" s="7">
         <v>124</v>
@@ -5264,28 +5288,28 @@
         <v>137393</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="M10" s="7">
         <v>236</v>
       </c>
       <c r="N10" s="7">
-        <v>242224</v>
+        <v>242225</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>337</v>
+        <v>76</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5327,7 +5351,7 @@
         <v>259</v>
       </c>
       <c r="N11" s="7">
-        <v>264997</v>
+        <v>264998</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>24</v>
@@ -5353,13 +5377,13 @@
         <v>2563</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -5368,13 +5392,13 @@
         <v>4530</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>220</v>
+        <v>339</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -5383,13 +5407,13 @@
         <v>7093</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5404,13 +5428,13 @@
         <v>5076</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>174</v>
+        <v>344</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -5419,13 +5443,13 @@
         <v>13549</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>347</v>
+        <v>314</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>348</v>
+        <v>178</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>345</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -5434,13 +5458,13 @@
         <v>18625</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5455,13 +5479,13 @@
         <v>157302</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H14" s="7">
         <v>168</v>
@@ -5470,13 +5494,13 @@
         <v>201085</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>52</v>
+        <v>351</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>265</v>
+        <v>352</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="M14" s="7">
         <v>334</v>
@@ -5485,13 +5509,13 @@
         <v>358386</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="P14" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>355</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5565,7 +5589,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5574,13 +5598,13 @@
         <v>7545</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>358</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>360</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -5589,13 +5613,13 @@
         <v>8565</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>181</v>
+        <v>359</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5610,13 +5634,13 @@
         <v>6837</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>365</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -5625,13 +5649,13 @@
         <v>12185</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -5640,10 +5664,10 @@
         <v>19022</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>370</v>
@@ -5771,7 +5795,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>380</v>
+        <v>312</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -5780,13 +5804,13 @@
         <v>5038</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -5801,7 +5825,7 @@
         <v>383</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>384</v>
+        <v>343</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5816,10 +5840,10 @@
         <v>6259</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>385</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>386</v>
@@ -5849,10 +5873,10 @@
         <v>390</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>391</v>
+        <v>134</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>392</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,13 +5891,13 @@
         <v>167595</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>393</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>394</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="H22" s="7">
         <v>186</v>
@@ -5882,13 +5906,13 @@
         <v>225889</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>398</v>
       </c>
       <c r="M22" s="7">
         <v>368</v>
@@ -5897,13 +5921,13 @@
         <v>393485</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5971,13 +5995,13 @@
         <v>7885</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="H24" s="7">
         <v>16</v>
@@ -5986,13 +6010,13 @@
         <v>20568</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>405</v>
+        <v>360</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>111</v>
+        <v>189</v>
       </c>
       <c r="M24" s="7">
         <v>25</v>
@@ -6001,13 +6025,13 @@
         <v>28452</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>106</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6022,13 +6046,13 @@
         <v>27772</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>181</v>
+        <v>359</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="H25" s="7">
         <v>39</v>
@@ -6037,13 +6061,13 @@
         <v>51051</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="M25" s="7">
         <v>70</v>
@@ -6052,13 +6076,13 @@
         <v>78823</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6073,13 +6097,13 @@
         <v>555671</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="H26" s="7">
         <v>600</v>
@@ -6088,13 +6112,13 @@
         <v>706312</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>289</v>
+        <v>417</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="M26" s="7">
         <v>1187</v>
@@ -6103,13 +6127,13 @@
         <v>1261983</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6165,7 +6189,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -6186,7 +6210,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F97148-84C8-462C-BA45-BE8F8E91FBAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10598C3-D0B6-45D3-8F9B-028C27E204A4}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6203,7 +6227,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6310,13 +6334,13 @@
         <v>374</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>424</v>
+        <v>93</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -6325,13 +6349,13 @@
         <v>860</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -6340,13 +6364,13 @@
         <v>1234</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>136</v>
+        <v>169</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>428</v>
+        <v>383</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6361,13 +6385,13 @@
         <v>350</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>70</v>
+        <v>427</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>430</v>
+        <v>44</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -6376,13 +6400,13 @@
         <v>4325</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>170</v>
+        <v>84</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -6391,13 +6415,13 @@
         <v>4674</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>433</v>
+        <v>277</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6412,10 +6436,10 @@
         <v>28940</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>188</v>
+        <v>433</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
@@ -6427,13 +6451,13 @@
         <v>40237</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="M6" s="7">
         <v>144</v>
@@ -6442,13 +6466,13 @@
         <v>69177</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6519,10 +6543,10 @@
         <v>55</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>343</v>
+        <v>440</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H8" s="7">
         <v>6</v>
@@ -6531,13 +6555,13 @@
         <v>2529</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>324</v>
+        <v>443</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -6546,10 +6570,10 @@
         <v>4984</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>445</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>446</v>
@@ -6737,13 +6761,13 @@
         <v>8146</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>275</v>
+        <v>468</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="M12" s="7">
         <v>18</v>
@@ -6752,13 +6776,13 @@
         <v>10094</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6773,13 +6797,13 @@
         <v>11433</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>33</v>
+        <v>473</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -6788,13 +6812,13 @@
         <v>20350</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>88</v>
+        <v>477</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -6803,13 +6827,13 @@
         <v>31783</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>477</v>
+        <v>68</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6824,13 +6848,13 @@
         <v>160465</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>214</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>480</v>
+        <v>329</v>
       </c>
       <c r="H14" s="7">
         <v>396</v>
@@ -6839,13 +6863,13 @@
         <v>214014</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="M14" s="7">
         <v>630</v>
@@ -6854,13 +6878,13 @@
         <v>374478</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6928,13 +6952,13 @@
         <v>1880</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -6943,13 +6967,13 @@
         <v>6815</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>115</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -6958,13 +6982,13 @@
         <v>8695</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>321</v>
+        <v>491</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6982,10 +7006,10 @@
         <v>38</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -6994,13 +7018,13 @@
         <v>7973</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>224</v>
+        <v>270</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -7009,13 +7033,13 @@
         <v>11029</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>218</v>
+        <v>497</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7030,13 +7054,13 @@
         <v>143255</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="H18" s="7">
         <v>267</v>
@@ -7045,13 +7069,13 @@
         <v>266326</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="M18" s="7">
         <v>454</v>
@@ -7060,13 +7084,13 @@
         <v>409581</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>74</v>
+        <v>507</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7134,13 +7158,13 @@
         <v>1444</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>58</v>
+        <v>508</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>388</v>
+        <v>509</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -7149,13 +7173,13 @@
         <v>5294</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -7164,13 +7188,13 @@
         <v>6738</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>508</v>
+        <v>514</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7185,13 +7209,13 @@
         <v>6895</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>509</v>
+        <v>195</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H21" s="7">
         <v>35</v>
@@ -7200,13 +7224,13 @@
         <v>23380</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>510</v>
+        <v>515</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>511</v>
+        <v>516</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>512</v>
+        <v>517</v>
       </c>
       <c r="M21" s="7">
         <v>46</v>
@@ -7215,13 +7239,13 @@
         <v>30275</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>513</v>
+        <v>518</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>514</v>
+        <v>519</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>515</v>
+        <v>520</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7236,13 +7260,13 @@
         <v>211905</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>516</v>
+        <v>521</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>517</v>
+        <v>522</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>518</v>
+        <v>523</v>
       </c>
       <c r="H22" s="7">
         <v>480</v>
@@ -7251,13 +7275,13 @@
         <v>280879</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>520</v>
+        <v>525</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>521</v>
+        <v>263</v>
       </c>
       <c r="M22" s="7">
         <v>794</v>
@@ -7266,13 +7290,13 @@
         <v>492784</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7340,13 +7364,13 @@
         <v>8100</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>131</v>
+        <v>528</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>67</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="H24" s="7">
         <v>41</v>
@@ -7355,13 +7379,13 @@
         <v>23644</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>524</v>
+        <v>529</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>525</v>
+        <v>530</v>
       </c>
       <c r="M24" s="7">
         <v>53</v>
@@ -7370,13 +7394,13 @@
         <v>31744</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>526</v>
+        <v>531</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>249</v>
+        <v>532</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7391,13 +7415,13 @@
         <v>30131</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>367</v>
+        <v>534</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>528</v>
+        <v>535</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>529</v>
+        <v>536</v>
       </c>
       <c r="H25" s="7">
         <v>136</v>
@@ -7406,13 +7430,13 @@
         <v>73684</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>530</v>
+        <v>537</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>304</v>
+        <v>538</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="M25" s="7">
         <v>183</v>
@@ -7421,13 +7445,13 @@
         <v>103815</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>533</v>
+        <v>541</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>534</v>
+        <v>542</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7442,13 +7466,13 @@
         <v>658690</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>535</v>
+        <v>543</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>537</v>
+        <v>545</v>
       </c>
       <c r="H26" s="7">
         <v>1528</v>
@@ -7457,13 +7481,13 @@
         <v>927954</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>540</v>
+        <v>548</v>
       </c>
       <c r="M26" s="7">
         <v>2496</v>
@@ -7472,13 +7496,13 @@
         <v>1586645</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>542</v>
+        <v>550</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7534,7 +7558,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/Q5413-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q5413-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB3979BD-0361-4DAB-9E03-4573EA099359}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FEC633C-E0ED-422C-92C4-178E76885A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{415712EE-5BCE-4E95-A81C-825AA2492BED}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{5DFDBB5E-363D-46B7-A587-99E1C9FDFAC6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="537">
   <si>
     <t>Población según si es capaz de vestirse solo en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -95,13 +95,13 @@
     <t>4,11%</t>
   </si>
   <si>
-    <t>20,17%</t>
+    <t>20,56%</t>
   </si>
   <si>
     <t>1,97%</t>
   </si>
   <si>
-    <t>9,95%</t>
+    <t>10,09%</t>
   </si>
   <si>
     <t>Sin ayuda</t>
@@ -119,13 +119,13 @@
     <t>95,89%</t>
   </si>
   <si>
-    <t>79,83%</t>
+    <t>79,44%</t>
   </si>
   <si>
     <t>98,03%</t>
   </si>
   <si>
-    <t>90,05%</t>
+    <t>89,91%</t>
   </si>
   <si>
     <t>2-10.000 hab</t>
@@ -134,13 +134,13 @@
     <t>1,07%</t>
   </si>
   <si>
-    <t>8,55%</t>
+    <t>6,1%</t>
   </si>
   <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>6,48%</t>
+    <t>6,58%</t>
   </si>
   <si>
     <t>1,54%</t>
@@ -149,1485 +149,1464 @@
     <t>0,44%</t>
   </si>
   <si>
-    <t>4,25%</t>
+    <t>4,07%</t>
   </si>
   <si>
     <t>6,14%</t>
   </si>
   <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>86,45%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>97,17%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>99,1%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>97,78%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
     <t>2,06%</t>
   </si>
   <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>85,5%</t>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>1,18%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>98,15%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>98,2%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
   </si>
   <si>
     <t>96,99%</t>
   </si>
   <si>
-    <t>97,17%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>2,01%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>98,82%</t>
+  </si>
+  <si>
+    <t>95,27%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>94,72%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de vestirse solo en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>80,83%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>93,8%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>1,48%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>80,49%</t>
+  </si>
+  <si>
+    <t>74,45%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>19,54%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>72,93%</t>
+  </si>
+  <si>
+    <t>87,24%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,31%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>88,37%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de vestirse solo en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>12,93%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>45,82%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>81,4%</t>
+  </si>
+  <si>
+    <t>54,18%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>83,86%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>91,15%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>91,88%</t>
+  </si>
+  <si>
+    <t>89,29%</t>
+  </si>
+  <si>
+    <t>84,34%</t>
+  </si>
+  <si>
+    <t>92,92%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
+    <t>94,27%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>Población según si es capaz de vestirse solo en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>91,32%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>88,58%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>88,19%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
   </si>
   <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>1,22%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>5,95%</t>
-  </si>
-  <si>
-    <t>98,2%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>1,68%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>98,81%</t>
-  </si>
-  <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>97,06%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de vestirse solo en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>15,45%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>79,76%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>84,55%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>80,08%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
+    <t>2,21%</t>
   </si>
   <si>
     <t>3,13%</t>
   </si>
   <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>84,25%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>80,49%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>80,42%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>84,86%</t>
-  </si>
-  <si>
-    <t>97,74%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>72,5%</t>
-  </si>
-  <si>
-    <t>87,06%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>86,4%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>94,18%</t>
-  </si>
-  <si>
-    <t>85,66%</t>
-  </si>
-  <si>
-    <t>82,9%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de vestirse solo en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>25,88%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>14,87%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>95,01%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>91,15%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>86,79%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>95,69%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>1,48%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>14,95%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>96,78%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>78,33%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>89,29%</t>
-  </si>
-  <si>
-    <t>84,11%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>1,49%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,19%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>94,27%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>96,47%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>1,35%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>87,85%</t>
-  </si>
-  <si>
-    <t>92,92%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>90,49%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>Población según si es capaz de vestirse solo en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>1,18%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>92,19%</t>
-  </si>
-  <si>
-    <t>88,59%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>92,13%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>95,28%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>91,32%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>86,24%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>88,58%</t>
-  </si>
-  <si>
-    <t>85,71%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>89,94%</t>
-  </si>
-  <si>
-    <t>87,32%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>92,57%</t>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
   </si>
   <si>
     <t>98,0%</t>
   </si>
   <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
     <t>90,74%</t>
   </si>
   <si>
-    <t>87,36%</t>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
   </si>
   <si>
     <t>93,01%</t>
   </si>
   <si>
-    <t>94,77%</t>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
   </si>
   <si>
     <t>1,16%</t>
   </si>
   <si>
+    <t>2,0%</t>
+  </si>
+  <si>
     <t>2,31%</t>
   </si>
   <si>
@@ -1637,61 +1616,40 @@
     <t>1,84%</t>
   </si>
   <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
+    <t>2,41%</t>
   </si>
   <si>
     <t>7,19%</t>
   </si>
   <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
+    <t>4,99%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
   </si>
   <si>
     <t>94,51%</t>
   </si>
   <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
   </si>
   <si>
     <t>90,51%</t>
   </si>
   <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>93,74%</t>
+    <t>88,57%</t>
+  </si>
+  <si>
+    <t>93,76%</t>
   </si>
 </sst>
 </file>
@@ -2103,7 +2061,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96071C57-91CF-4142-8B0D-DACC06720F72}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE3663F-48FF-45C8-98BF-912C434EEE1A}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2654,13 +2612,13 @@
         <v>3768</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M12" s="7">
         <v>7</v>
@@ -2669,13 +2627,13 @@
         <v>6620</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2690,13 +2648,13 @@
         <v>3996</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
         <v>4</v>
@@ -2705,13 +2663,13 @@
         <v>4258</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M13" s="7">
         <v>8</v>
@@ -2720,13 +2678,13 @@
         <v>8254</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2741,13 +2699,13 @@
         <v>139041</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H14" s="7">
         <v>162</v>
@@ -2756,13 +2714,13 @@
         <v>174654</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M14" s="7">
         <v>301</v>
@@ -2771,13 +2729,13 @@
         <v>313694</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2833,7 +2791,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2851,7 +2809,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -2860,13 +2818,13 @@
         <v>1933</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -2875,13 +2833,13 @@
         <v>1933</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2896,13 +2854,13 @@
         <v>1882</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H17" s="7">
         <v>5</v>
@@ -2911,10 +2869,10 @@
         <v>5148</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="L17" s="7" t="s">
         <v>91</v>
@@ -3072,7 +3030,7 @@
         <v>107</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>108</v>
+        <v>66</v>
       </c>
       <c r="M20" s="7">
         <v>7</v>
@@ -3081,13 +3039,13 @@
         <v>7215</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3102,10 +3060,10 @@
         <v>3292</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>113</v>
@@ -3153,13 +3111,13 @@
         <v>133086</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>47</v>
+        <v>119</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H22" s="7">
         <v>191</v>
@@ -3168,13 +3126,13 @@
         <v>198899</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="M22" s="7">
         <v>342</v>
@@ -3257,13 +3215,13 @@
         <v>4640</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H24" s="7">
         <v>14</v>
@@ -3272,13 +3230,13 @@
         <v>14420</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M24" s="7">
         <v>19</v>
@@ -3287,13 +3245,13 @@
         <v>19061</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3308,13 +3266,13 @@
         <v>14609</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -3323,13 +3281,13 @@
         <v>15109</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="M25" s="7">
         <v>30</v>
@@ -3338,13 +3296,13 @@
         <v>29718</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3359,13 +3317,13 @@
         <v>483217</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H26" s="7">
         <v>633</v>
@@ -3374,13 +3332,13 @@
         <v>647312</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M26" s="7">
         <v>1135</v>
@@ -3389,13 +3347,13 @@
         <v>1130529</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3451,7 +3409,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3472,7 +3430,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3620EF71-CB23-48F8-AEB4-C210408451F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EB1E9D8-B7A3-4E25-B1E3-38039FB152AA}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3489,7 +3447,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3602,7 +3560,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3617,7 +3575,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3632,7 +3590,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3647,13 +3605,13 @@
         <v>965</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H5" s="7">
         <v>1</v>
@@ -3662,13 +3620,13 @@
         <v>1131</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="M5" s="7">
         <v>2</v>
@@ -3683,7 +3641,7 @@
         <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3698,10 +3656,10 @@
         <v>20233</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
@@ -3713,10 +3671,10 @@
         <v>24063</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>22</v>
@@ -3728,10 +3686,10 @@
         <v>44296</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>22</v>
@@ -3802,13 +3760,13 @@
         <v>2125</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -3817,13 +3775,13 @@
         <v>7368</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="M8" s="7">
         <v>9</v>
@@ -3832,13 +3790,13 @@
         <v>9493</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3853,13 +3811,13 @@
         <v>4300</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="H9" s="7">
         <v>10</v>
@@ -3868,13 +3826,13 @@
         <v>10636</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="M9" s="7">
         <v>14</v>
@@ -3883,13 +3841,13 @@
         <v>14936</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3904,13 +3862,13 @@
         <v>111925</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>78</v>
       </c>
       <c r="H10" s="7">
         <v>117</v>
@@ -3919,13 +3877,13 @@
         <v>123589</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M10" s="7">
         <v>216</v>
@@ -3934,13 +3892,13 @@
         <v>235514</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4008,13 +3966,13 @@
         <v>6474</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="H12" s="7">
         <v>10</v>
@@ -4023,13 +3981,13 @@
         <v>11100</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>92</v>
+        <v>196</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="M12" s="7">
         <v>16</v>
@@ -4038,13 +3996,13 @@
         <v>17574</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4059,13 +4017,13 @@
         <v>8730</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H13" s="7">
         <v>23</v>
@@ -4074,13 +4032,13 @@
         <v>26237</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="M13" s="7">
         <v>31</v>
@@ -4089,13 +4047,13 @@
         <v>34967</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4110,13 +4068,13 @@
         <v>139674</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H14" s="7">
         <v>144</v>
@@ -4125,13 +4083,13 @@
         <v>154082</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="M14" s="7">
         <v>268</v>
@@ -4140,13 +4098,13 @@
         <v>293757</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4202,7 +4160,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4214,13 +4172,13 @@
         <v>5409</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H16" s="7">
         <v>7</v>
@@ -4229,13 +4187,13 @@
         <v>9003</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>195</v>
+        <v>223</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -4244,13 +4202,13 @@
         <v>14412</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4265,13 +4223,13 @@
         <v>2117</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -4280,13 +4238,13 @@
         <v>18000</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>19</v>
@@ -4295,13 +4253,13 @@
         <v>20117</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4316,13 +4274,13 @@
         <v>96072</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="H18" s="7">
         <v>105</v>
@@ -4331,13 +4289,13 @@
         <v>114016</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="M18" s="7">
         <v>189</v>
@@ -4346,13 +4304,13 @@
         <v>210088</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>239</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4420,13 +4378,13 @@
         <v>2027</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H20" s="7">
         <v>8</v>
@@ -4435,13 +4393,13 @@
         <v>8392</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>243</v>
+        <v>194</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M20" s="7">
         <v>10</v>
@@ -4450,13 +4408,13 @@
         <v>10419</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>246</v>
+        <v>139</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4471,13 +4429,13 @@
         <v>13185</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H21" s="7">
         <v>14</v>
@@ -4486,13 +4444,13 @@
         <v>14673</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="M21" s="7">
         <v>25</v>
@@ -4501,13 +4459,13 @@
         <v>27859</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>203</v>
+        <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4522,13 +4480,13 @@
         <v>146401</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H22" s="7">
         <v>209</v>
@@ -4537,13 +4495,13 @@
         <v>220685</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M22" s="7">
         <v>343</v>
@@ -4552,13 +4510,13 @@
         <v>367086</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4626,13 +4584,13 @@
         <v>16035</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H24" s="7">
         <v>32</v>
@@ -4641,13 +4599,13 @@
         <v>35863</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>269</v>
+        <v>175</v>
       </c>
       <c r="M24" s="7">
         <v>46</v>
@@ -4656,13 +4614,13 @@
         <v>51898</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>118</v>
+        <v>157</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>270</v>
+        <v>223</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4677,13 +4635,13 @@
         <v>29297</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H25" s="7">
         <v>65</v>
@@ -4692,13 +4650,13 @@
         <v>70678</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>174</v>
+        <v>278</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M25" s="7">
         <v>91</v>
@@ -4707,13 +4665,13 @@
         <v>99975</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4728,13 +4686,13 @@
         <v>514305</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>281</v>
+        <v>145</v>
       </c>
       <c r="H26" s="7">
         <v>597</v>
@@ -4743,13 +4701,13 @@
         <v>636434</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="M26" s="7">
         <v>1061</v>
@@ -4758,13 +4716,13 @@
         <v>1150739</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4820,7 +4778,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4841,7 +4799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9A22506-66CD-4163-8486-05914AF8CBAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B6B4DE6-E73C-4868-AA72-1C2B85432301}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4858,7 +4816,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4965,13 +4923,13 @@
         <v>1843</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4986,7 +4944,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="M4" s="7">
         <v>2</v>
@@ -4995,13 +4953,13 @@
         <v>1843</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5016,13 +4974,13 @@
         <v>1079</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="H5" s="7">
         <v>3</v>
@@ -5031,13 +4989,13 @@
         <v>4360</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>297</v>
+        <v>85</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M5" s="7">
         <v>4</v>
@@ -5046,13 +5004,13 @@
         <v>5439</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5067,13 +5025,13 @@
         <v>18766</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="H6" s="7">
         <v>19</v>
@@ -5082,13 +5040,13 @@
         <v>19079</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M6" s="7">
         <v>40</v>
@@ -5097,13 +5055,13 @@
         <v>37844</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5171,13 +5129,13 @@
         <v>1694</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>116</v>
+        <v>314</v>
       </c>
       <c r="H8" s="7">
         <v>3</v>
@@ -5186,13 +5144,13 @@
         <v>3456</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="M8" s="7">
         <v>5</v>
@@ -5201,13 +5159,13 @@
         <v>5150</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5222,13 +5180,13 @@
         <v>8521</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="H9" s="7">
         <v>8</v>
@@ -5237,25 +5195,25 @@
         <v>9103</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>321</v>
+        <v>89</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>322</v>
+        <v>92</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="M9" s="7">
         <v>18</v>
       </c>
       <c r="N9" s="7">
-        <v>17624</v>
+        <v>17623</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>325</v>
+        <v>105</v>
       </c>
       <c r="Q9" s="7" t="s">
         <v>326</v>
@@ -5300,16 +5258,16 @@
         <v>236</v>
       </c>
       <c r="N10" s="7">
-        <v>242225</v>
+        <v>242224</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>76</v>
+        <v>333</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,7 +5309,7 @@
         <v>259</v>
       </c>
       <c r="N11" s="7">
-        <v>264998</v>
+        <v>264997</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>24</v>
@@ -5377,13 +5335,13 @@
         <v>2563</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>189</v>
+        <v>338</v>
       </c>
       <c r="H12" s="7">
         <v>3</v>
@@ -5392,13 +5350,13 @@
         <v>4530</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -5407,13 +5365,13 @@
         <v>7093</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5428,13 +5386,13 @@
         <v>5076</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>313</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -5443,13 +5401,13 @@
         <v>13549</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>178</v>
+        <v>348</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -5458,13 +5416,13 @@
         <v>18625</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5479,13 +5437,13 @@
         <v>157302</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="H14" s="7">
         <v>168</v>
@@ -5494,13 +5452,13 @@
         <v>201085</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="M14" s="7">
         <v>334</v>
@@ -5509,13 +5467,13 @@
         <v>358386</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>119</v>
+        <v>358</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>355</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5571,7 +5529,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5583,13 +5541,13 @@
         <v>1020</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="H16" s="7">
         <v>6</v>
@@ -5598,13 +5556,13 @@
         <v>7545</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>357</v>
+        <v>273</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>138</v>
+        <v>342</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="M16" s="7">
         <v>7</v>
@@ -5613,13 +5571,13 @@
         <v>8565</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>360</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5634,13 +5592,13 @@
         <v>6837</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H17" s="7">
         <v>9</v>
@@ -5649,13 +5607,13 @@
         <v>12185</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -5664,13 +5622,13 @@
         <v>19022</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5685,13 +5643,13 @@
         <v>107177</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="H18" s="7">
         <v>103</v>
@@ -5700,13 +5658,13 @@
         <v>122866</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="M18" s="7">
         <v>209</v>
@@ -5715,13 +5673,13 @@
         <v>230044</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5795,7 +5753,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>312</v>
+        <v>383</v>
       </c>
       <c r="H20" s="7">
         <v>4</v>
@@ -5804,13 +5762,13 @@
         <v>5038</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="M20" s="7">
         <v>5</v>
@@ -5819,13 +5777,13 @@
         <v>5802</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>343</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5840,13 +5798,13 @@
         <v>6259</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>384</v>
+        <v>389</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="H21" s="7">
         <v>8</v>
@@ -5855,13 +5813,13 @@
         <v>11855</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>388</v>
+        <v>393</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>389</v>
+        <v>394</v>
       </c>
       <c r="M21" s="7">
         <v>15</v>
@@ -5870,13 +5828,13 @@
         <v>18114</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>204</v>
+        <v>396</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5891,13 +5849,13 @@
         <v>167595</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>392</v>
+        <v>189</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>393</v>
+        <v>78</v>
       </c>
       <c r="H22" s="7">
         <v>186</v>
@@ -5906,13 +5864,13 @@
         <v>225889</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="M22" s="7">
         <v>368</v>
@@ -5921,13 +5879,13 @@
         <v>393485</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5995,13 +5953,13 @@
         <v>7885</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>401</v>
+        <v>68</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>402</v>
+        <v>366</v>
       </c>
       <c r="H24" s="7">
         <v>16</v>
@@ -6010,13 +5968,13 @@
         <v>20568</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>360</v>
+        <v>406</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>189</v>
+        <v>407</v>
       </c>
       <c r="M24" s="7">
         <v>25</v>
@@ -6025,13 +5983,13 @@
         <v>28452</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>404</v>
+        <v>129</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>221</v>
+        <v>408</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6046,13 +6004,13 @@
         <v>27772</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>359</v>
+        <v>410</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="H25" s="7">
         <v>39</v>
@@ -6061,13 +6019,13 @@
         <v>51051</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="M25" s="7">
         <v>70</v>
@@ -6076,13 +6034,13 @@
         <v>78823</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>412</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6097,13 +6055,13 @@
         <v>555671</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="H26" s="7">
         <v>600</v>
@@ -6112,13 +6070,13 @@
         <v>706312</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>417</v>
+        <v>399</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="M26" s="7">
         <v>1187</v>
@@ -6127,13 +6085,13 @@
         <v>1261983</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6189,7 +6147,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -6210,7 +6168,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E10598C3-D0B6-45D3-8F9B-028C27E204A4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{565F0E13-E2E8-40D2-AA47-5523A4225C5D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6227,7 +6185,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6334,13 +6292,13 @@
         <v>374</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>93</v>
+        <v>139</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -6349,13 +6307,13 @@
         <v>860</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="M4" s="7">
         <v>3</v>
@@ -6364,13 +6322,13 @@
         <v>1234</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>383</v>
+        <v>337</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -6385,13 +6343,13 @@
         <v>350</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>427</v>
+        <v>71</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>44</v>
+        <v>195</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -6400,13 +6358,13 @@
         <v>4325</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>84</v>
+        <v>234</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="M5" s="7">
         <v>12</v>
@@ -6415,13 +6373,13 @@
         <v>4674</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>277</v>
+        <v>44</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6436,10 +6394,10 @@
         <v>28940</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>22</v>
@@ -6451,13 +6409,13 @@
         <v>40237</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="M6" s="7">
         <v>144</v>
@@ -6466,13 +6424,13 @@
         <v>69177</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6543,7 +6501,7 @@
         <v>55</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>440</v>
+        <v>340</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>441</v>
@@ -6558,10 +6516,10 @@
         <v>442</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>313</v>
+        <v>443</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="M8" s="7">
         <v>10</v>
@@ -6570,13 +6528,13 @@
         <v>4984</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>446</v>
+        <v>275</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6609,10 +6567,10 @@
         <v>450</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>452</v>
       </c>
       <c r="M9" s="7">
         <v>55</v>
@@ -6621,13 +6579,13 @@
         <v>26054</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>454</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>455</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6642,13 +6600,13 @@
         <v>114125</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>456</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>457</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="H10" s="7">
         <v>286</v>
@@ -6657,13 +6615,13 @@
         <v>126499</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>457</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>459</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>460</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>461</v>
       </c>
       <c r="M10" s="7">
         <v>474</v>
@@ -6672,13 +6630,13 @@
         <v>240625</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>460</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6746,13 +6704,13 @@
         <v>1948</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>467</v>
+        <v>42</v>
       </c>
       <c r="H12" s="7">
         <v>15</v>
@@ -6761,13 +6719,13 @@
         <v>8146</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>466</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>469</v>
+        <v>60</v>
       </c>
       <c r="M12" s="7">
         <v>18</v>
@@ -6776,13 +6734,13 @@
         <v>10094</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6797,13 +6755,13 @@
         <v>11433</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>473</v>
+        <v>33</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>474</v>
+        <v>90</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -6812,13 +6770,13 @@
         <v>20350</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>476</v>
+        <v>178</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="M13" s="7">
         <v>54</v>
@@ -6827,13 +6785,13 @@
         <v>31783</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>68</v>
+        <v>169</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6848,13 +6806,13 @@
         <v>160465</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>214</v>
+        <v>476</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>329</v>
+        <v>477</v>
       </c>
       <c r="H14" s="7">
         <v>396</v>
@@ -6863,13 +6821,13 @@
         <v>214014</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="M14" s="7">
         <v>630</v>
@@ -6878,13 +6836,13 @@
         <v>374478</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6940,7 +6898,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6952,13 +6910,13 @@
         <v>1880</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>346</v>
+        <v>485</v>
       </c>
       <c r="H16" s="7">
         <v>9</v>
@@ -6967,13 +6925,13 @@
         <v>6815</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>115</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="M16" s="7">
         <v>11</v>
@@ -6982,13 +6940,13 @@
         <v>8695</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -7003,13 +6961,13 @@
         <v>3055</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>493</v>
+        <v>337</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>494</v>
+        <v>41</v>
       </c>
       <c r="H17" s="7">
         <v>12</v>
@@ -7018,13 +6976,13 @@
         <v>7973</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>270</v>
+        <v>490</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>495</v>
+        <v>443</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="M17" s="7">
         <v>16</v>
@@ -7033,13 +6991,13 @@
         <v>11029</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>497</v>
+        <v>446</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>498</v>
+        <v>338</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7054,13 +7012,13 @@
         <v>143255</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="H18" s="7">
         <v>267</v>
@@ -7069,13 +7027,13 @@
         <v>266326</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="M18" s="7">
         <v>454</v>
@@ -7084,13 +7042,13 @@
         <v>409581</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7158,13 +7116,13 @@
         <v>1444</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>508</v>
+        <v>59</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>509</v>
+        <v>383</v>
       </c>
       <c r="H20" s="7">
         <v>9</v>
@@ -7173,13 +7131,13 @@
         <v>5294</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>510</v>
+        <v>142</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="M20" s="7">
         <v>11</v>
@@ -7188,13 +7146,13 @@
         <v>6738</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7209,13 +7167,13 @@
         <v>6895</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>195</v>
+        <v>505</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>471</v>
+        <v>406</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>357</v>
+        <v>94</v>
       </c>
       <c r="H21" s="7">
         <v>35</v>
@@ -7224,13 +7182,13 @@
         <v>23380</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="M21" s="7">
         <v>46</v>
@@ -7239,13 +7197,13 @@
         <v>30275</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>518</v>
+        <v>169</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7260,13 +7218,13 @@
         <v>211905</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="H22" s="7">
         <v>480</v>
@@ -7275,13 +7233,13 @@
         <v>280879</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>263</v>
+        <v>516</v>
       </c>
       <c r="M22" s="7">
         <v>794</v>
@@ -7290,13 +7248,13 @@
         <v>492784</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>416</v>
+        <v>518</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>527</v>
+        <v>519</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7364,13 +7322,13 @@
         <v>8100</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>528</v>
+        <v>520</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>404</v>
+        <v>521</v>
       </c>
       <c r="H24" s="7">
         <v>41</v>
@@ -7379,13 +7337,13 @@
         <v>23644</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>471</v>
+        <v>34</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="M24" s="7">
         <v>53</v>
@@ -7394,13 +7352,13 @@
         <v>31744</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>532</v>
+        <v>43</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>533</v>
+        <v>525</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7415,13 +7373,13 @@
         <v>30131</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>534</v>
+        <v>509</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>535</v>
+        <v>42</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>536</v>
+        <v>195</v>
       </c>
       <c r="H25" s="7">
         <v>136</v>
@@ -7430,13 +7388,13 @@
         <v>73684</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="M25" s="7">
         <v>183</v>
@@ -7445,13 +7403,13 @@
         <v>103815</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>540</v>
+        <v>113</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>541</v>
+        <v>529</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>542</v>
+        <v>530</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7466,13 +7424,13 @@
         <v>658690</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>543</v>
+        <v>531</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>544</v>
+        <v>532</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>545</v>
+        <v>533</v>
       </c>
       <c r="H26" s="7">
         <v>1528</v>
@@ -7481,13 +7439,13 @@
         <v>927954</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>546</v>
+        <v>534</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>547</v>
+        <v>535</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>548</v>
+        <v>125</v>
       </c>
       <c r="M26" s="7">
         <v>2496</v>
@@ -7496,13 +7454,13 @@
         <v>1586645</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>549</v>
+        <v>74</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>550</v>
+        <v>536</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7558,7 +7516,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
